--- a/PytestTest/data/测谈网接口测试用例.xlsx
+++ b/PytestTest/data/测谈网接口测试用例.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\github\test22\PytestTest\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD4E029-20FA-4D44-A518-10EE8AF003B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C67E54B-734C-4D66-84B8-F51A3BD78CDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-912" yWindow="288" windowWidth="11520" windowHeight="11904" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -187,10 +187,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.144.148.91:2333/get/coure?cid=270</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试获取问题详情接口成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -211,10 +207,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://192.144.148.91:2333get/article?aid=68792</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试获取灵感接口成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,10 +231,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"password":"lj123456","mb":{"2":"嘻嘻嘻","1":"哈哈哈","3":"哈哈哈"}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"Content-Type":"application/json", "token":read_file('./conf/user_token.txt')}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -251,40 +239,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用户修改提问接口成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.144.148.91:2333/question/update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"title":"为什么要学习测试","content":"内容","tags":"测试1234","brief":"介绍", "ximg":"dsfsdf.jpg"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"title":"为什么学测试","content":"内容","tags":"测试1234","brief":"介绍","qid":read_file('./conf/user_qid.txt'),"ximg":"dsfsdf.jpg"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.144.148.91:2333/question/delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用户删除提问接口成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"qid":read_file('./conf/user_qid.txt')}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.144.148.91:2333/get/article?aid=68792</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://192.144.148.91:2333/get/coure?cid=8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"password":"a12345783","mb":{"2":"嘻嘻嘻","1":"哈哈哈","3":"哈哈哈"}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>测试用户提问接口成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试用户修改提问接口成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.144.148.91:2333/question/update</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"title":"为什么要学习测试","content":"内容","tags":"测试1234","brief":"介绍", "ximg":"dsfsdf.jpg"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"title":"为什么学测试","content":"内容","tags":"测试1234","brief":"介绍","qid":read_file('./conf/user_qid.txt'),"ximg":"dsfsdf.jpg"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://192.144.148.91:2333/question/delete</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试用户删除提问接口成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"qid":read_file('./conf/user_qid.txt')}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -646,8 +645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="D7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -928,7 +927,7 @@
         <v>39</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>8</v>
@@ -951,10 +950,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>42</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>8</v>
@@ -977,10 +976,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>8</v>
@@ -1003,10 +1002,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>8</v>
@@ -1029,10 +1028,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>8</v>
@@ -1055,10 +1054,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>8</v>
@@ -1081,16 +1080,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>24</v>
@@ -1107,16 +1106,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="E18" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>24</v>
@@ -1133,16 +1132,16 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>24</v>
@@ -1159,16 +1158,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>24</v>
@@ -1185,7 +1184,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>28</v>
@@ -1201,7 +1200,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>28</v>
@@ -1217,7 +1216,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>28</v>
@@ -1233,7 +1232,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>28</v>
@@ -1249,7 +1248,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>28</v>
@@ -1265,7 +1264,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>28</v>
@@ -1281,7 +1280,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>28</v>
@@ -1297,7 +1296,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>28</v>
@@ -1313,7 +1312,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>28</v>
@@ -1329,7 +1328,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>28</v>
@@ -1345,7 +1344,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>28</v>
@@ -1361,7 +1360,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>28</v>
@@ -1377,7 +1376,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>28</v>
@@ -1393,7 +1392,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>28</v>
@@ -1409,7 +1408,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>28</v>
